--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3281194.411714164</v>
+        <v>3279306.830197761</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>84.41894673989141</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>9.283029612712731</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.08467608327369</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>52.33159926298225</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>132.5172612375155</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.6528551206849</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>114.4476313097773</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>35.67764259955304</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.04875807993751</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>192.5627265154902</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>93.87916681139873</v>
       </c>
       <c r="V13" t="n">
-        <v>92.96146126744043</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>5.56262439642458</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>106.2835578420355</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056513</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>29.18937547121067</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>58.84841879028957</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.0808062152348</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>113.9765264254011</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>78.67531269948073</v>
+        <v>93.41221638965517</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801199</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>42.20569823125695</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897894</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2611.877427644595</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2393.242760616658</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2139.480975254749</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2139.480975254749</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2139.480975254749</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.480975254749</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.3338608103785</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>229.3976778824716</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>79.28103847013585</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>79.28103847013585</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>79.28103847013585</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>79.28103847013585</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>79.28103847013585</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>485.9377865134672</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>120.7265871575132</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2563.293271586389</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2309.53148622448</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1978.468598880909</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1978.468598880909</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1978.468598880909</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="6">
@@ -4653,10 +4653,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1725.724578248621</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>1356.76206130821</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>998.4963627014592</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2352.320593358976</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2021.257706015405</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.324418312743</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="Y8" t="n">
-        <v>2112.324418312743</v>
+        <v>1668.489050745291</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>533.621179645333</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,13 +5051,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>1115.887165844753</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>826.4699958077928</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>598.4804449097754</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5267,25 +5267,25 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,25 +5458,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>620.242624916905</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>102.8359039819268</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>354.6908600059908</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>354.6908600059908</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>204.574220593655</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>204.574220593655</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>204.574220593655</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>204.574220593655</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W19" t="n">
-        <v>241.980548233671</v>
+        <v>354.6908600059908</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>354.6908600059908</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>354.6908600059908</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822458</v>
@@ -5753,22 +5753,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5908,22 +5908,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>354.6908600059908</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>126.7013091079734</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,19 +5978,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,19 +5999,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1328.398319856809</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1104.612904646315</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,13 +6224,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.3055067228584</v>
+        <v>416.2699138005287</v>
       </c>
       <c r="C28" t="n">
-        <v>413.3055067228584</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028597</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,16 +6388,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765181</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>531.3977182706311</v>
       </c>
       <c r="W28" t="n">
-        <v>1043.736101594646</v>
+        <v>531.397718270631</v>
       </c>
       <c r="X28" t="n">
-        <v>815.7465506966282</v>
+        <v>531.397718270631</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.9539715530981</v>
+        <v>416.2699138005288</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6488,10 +6488,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542201</v>
+        <v>439.5324299542198</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542201</v>
+        <v>326.3571123076838</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264618</v>
+        <v>232.0013381767192</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264618</v>
+        <v>139.8491098756969</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>139.8491098756969</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667513</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,19 +6637,19 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
         <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
         <v>1335.260356662</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818946</v>
+        <v>902.6804289818942</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652481</v>
+        <v>730.4517433652478</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030889</v>
+        <v>565.4200295030886</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,7 +6935,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6947,16 +6947,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7078,7 +7078,7 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
         <v>320.884739850451</v>
@@ -7087,25 +7087,25 @@
         <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,16 +7126,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010315</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,10 +7172,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083207</v>
@@ -7558,61 +7558,61 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7789,25 +7789,25 @@
         <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>18.73797368291383</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>76.43196988338491</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>41.75994765618401</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>113.602692129454</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10118,13 +10118,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>392.1113620226434</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>32.92248665775594</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="V13" t="n">
-        <v>159.1761820563876</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.0220289556702</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>42.63027052550062</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338582</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>138.0574456274172</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.0723911933137</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.44219212135621</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>104.6081269266937</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>14.73690369017445</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801199</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>90.21779139437406</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.08461360356345</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897894</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.2159888357148</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.121424171</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753666.6611177813</v>
+        <v>753666.6611177812</v>
       </c>
     </row>
     <row r="12">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846414</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846412</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.504384641</v>
-      </c>
       <c r="E2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541042</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="G2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="H2" t="n">
         <v>664749.4015541049</v>
@@ -26335,25 +26335,25 @@
         <v>664749.4015541048</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="K2" t="n">
         <v>691597.6334869595</v>
       </c>
       <c r="L2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="M2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.504384641</v>
       </c>
       <c r="N2" t="n">
+        <v>697885.5043846407</v>
+      </c>
+      <c r="O2" t="n">
         <v>697885.5043846405</v>
       </c>
-      <c r="O2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="P2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.504384641</v>
       </c>
     </row>
     <row r="3">
@@ -26390,7 +26390,7 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284579</v>
       </c>
       <c r="L3" t="n">
         <v>10342.90680086676</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284576</v>
+        <v>44162.60530284578</v>
       </c>
     </row>
     <row r="4">
@@ -26436,10 +26436,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="J4" t="n">
         <v>22174.60758687072</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>40339.23010106728</v>
@@ -26448,13 +26448,13 @@
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819118</v>
       </c>
-      <c r="N4" t="n">
-        <v>44593.39482819119</v>
-      </c>
       <c r="O4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-140574.3206798373</v>
+        <v>-140574.3206798372</v>
       </c>
       <c r="C6" t="n">
+        <v>449393.5585347075</v>
+      </c>
+      <c r="D6" t="n">
         <v>449393.5585347073</v>
       </c>
-      <c r="D6" t="n">
-        <v>449393.5585347071</v>
-      </c>
       <c r="E6" t="n">
-        <v>25427.43154162151</v>
+        <v>25329.97241564852</v>
       </c>
       <c r="F6" t="n">
-        <v>550587.4680185177</v>
+        <v>550490.0088925451</v>
       </c>
       <c r="G6" t="n">
-        <v>550587.4680185176</v>
+        <v>550490.0088925452</v>
       </c>
       <c r="H6" t="n">
-        <v>550587.4680185176</v>
+        <v>550490.0088925455</v>
       </c>
       <c r="I6" t="n">
-        <v>550587.4680185175</v>
+        <v>550490.0088925454</v>
       </c>
       <c r="J6" t="n">
-        <v>374164.2488259245</v>
+        <v>374066.7896999525</v>
       </c>
       <c r="K6" t="n">
-        <v>510467.5895528237</v>
+        <v>510449.0958148894</v>
       </c>
       <c r="L6" t="n">
-        <v>545234.0969355577</v>
+        <v>545234.0969355574</v>
       </c>
       <c r="M6" t="n">
-        <v>420775.9885025868</v>
+        <v>420775.9885025872</v>
       </c>
       <c r="N6" t="n">
+        <v>555577.0037364241</v>
+      </c>
+      <c r="O6" t="n">
         <v>555577.0037364239</v>
       </c>
-      <c r="O6" t="n">
-        <v>555577.0037364243</v>
-      </c>
       <c r="P6" t="n">
-        <v>511414.3984335783</v>
+        <v>511414.3984335786</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,25 +26738,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="L2" t="n">
         <v>12.92863350108345</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855724</v>
       </c>
     </row>
     <row r="3">
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>89.99676606908012</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>360.4480710657563</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>109.8809457090645</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>99.599716981879</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>83.93105912014227</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.4847882031431</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>267.4827387624845</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>138.7380702094185</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>196.2331161620402</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.02192683660456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,13 +28339,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>225.8313886144385</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>358.7956721244931</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>374.9545210541968</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>201.6157249145282</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>424.0270691799203</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>10.73738595686865</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36768,10 +36768,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,13 +36838,13 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>660.1896773843231</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>343.3468637082223</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38108,10 +38108,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
